--- a/tests/assets/operacoes-teste.xlsx
+++ b/tests/assets/operacoes-teste.xlsx
@@ -84,8 +84,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
+    <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -224,7 +224,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -242,12 +242,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,239 +277,23 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC9DAF8"/>
-          <bgColor rgb="FFC9DAF8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC0000"/>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -774,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -786,7 +570,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
     <col min="13" max="13" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,10 +649,10 @@
       <c r="H2" s="5">
         <v>125510</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="31">
         <v>0.40625</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="30">
         <v>0.43402777777777779</v>
       </c>
       <c r="K2" s="7" t="b">
@@ -906,10 +690,10 @@
       <c r="H3" s="5">
         <v>125655</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="31">
         <v>0.46180555555555558</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="31">
         <v>0.46527777777777779</v>
       </c>
       <c r="K3" s="7" t="b">
@@ -945,10 +729,10 @@
       <c r="H4" s="5">
         <v>126135</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="31">
         <v>0.52430555555555558</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="31">
         <v>0.60069444444444442</v>
       </c>
       <c r="K4" s="7" t="b">
@@ -986,10 +770,10 @@
       <c r="H5" s="6">
         <v>126610</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="33">
         <v>0.4201388888888889</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <v>0.4236111111111111</v>
       </c>
       <c r="K5" s="7" t="b">
@@ -1025,11 +809,11 @@
       <c r="H6" s="6">
         <v>125895</v>
       </c>
-      <c r="I6" s="32">
-        <v>0.46875</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0.4826388888888889</v>
+      <c r="I6" s="33">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0.60763888888888895</v>
       </c>
       <c r="K6" s="7" t="b">
         <v>0</v>
@@ -2301,32 +2085,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>(NOT(ISBLANK($E2)) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>($L2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>($K2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>#REF! &lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>#REF! &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>(NOT(ISBLANK(#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/assets/operacoes-teste.xlsx
+++ b/tests/assets/operacoes-teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Data</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,18 +283,20 @@
     <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,67 +562,69 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -623,1499 +633,1515 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="29" t="s">
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>125965</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>125510</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>126375</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>125510</v>
       </c>
-      <c r="I2" s="31">
+      <c r="J2" s="31">
         <v>0.40625</v>
       </c>
-      <c r="J2" s="30">
+      <c r="K2" s="30">
         <v>0.43402777777777779</v>
       </c>
-      <c r="K2" s="7" t="b">
+      <c r="L2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="b">
+      <c r="M2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:23" ht="12.75">
+      <c r="A3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>125355</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>125655</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>124780</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>125655</v>
       </c>
-      <c r="I3" s="31">
+      <c r="J3" s="31">
         <v>0.46180555555555558</v>
       </c>
-      <c r="J3" s="31">
+      <c r="K3" s="31">
         <v>0.46527777777777779</v>
-      </c>
-      <c r="K3" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="L3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="29" t="s">
+      <c r="M3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" ht="12.75">
+      <c r="A4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>125685</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>126135</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>125135</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>126135</v>
       </c>
-      <c r="I4" s="31">
+      <c r="J4" s="31">
         <v>0.52430555555555558</v>
       </c>
-      <c r="J4" s="31">
+      <c r="K4" s="31">
         <v>0.60069444444444442</v>
       </c>
-      <c r="K4" s="7" t="b">
+      <c r="L4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="7" t="b">
+      <c r="M4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:23" ht="12.75">
+      <c r="A5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>126010</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>125700</v>
-      </c>
-      <c r="G5" s="6">
-        <v>126610</v>
       </c>
       <c r="H5" s="6">
         <v>126610</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="6">
+        <v>126610</v>
+      </c>
+      <c r="J5" s="33">
         <v>0.4201388888888889</v>
       </c>
-      <c r="J5" s="32">
+      <c r="K5" s="32">
         <v>0.4236111111111111</v>
-      </c>
-      <c r="K5" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="L5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="29" t="s">
+      <c r="M5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" ht="12.75">
+      <c r="A6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>126420</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>125895</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>127020</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>125895</v>
       </c>
-      <c r="I6" s="33">
+      <c r="J6" s="33">
         <v>0.55208333333333337</v>
       </c>
-      <c r="J6" s="32">
+      <c r="K6" s="32">
         <v>0.60763888888888895</v>
       </c>
-      <c r="K6" s="7" t="b">
+      <c r="L6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="7" t="b">
+      <c r="M6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="1:23">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="14"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="14"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="14"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="9"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="15"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="9"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="14"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="9"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="14"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="9"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="14"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="9"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="14"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="15"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="9"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="14"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="7"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="9"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="14"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="7"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="9"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="14"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="14"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="15"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="9"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="14"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="9"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="14"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="9"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="23"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="14"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="23"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="7"/>
+      <c r="K37" s="15"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="23"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="14"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="23"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="15"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="18"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="23"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="14"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="23"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="17"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="14"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="17"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="7"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="7"/>
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="17"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="14"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="17"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="7"/>
-      <c r="M41" s="16"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="17"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="14"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="17"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="17"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="14"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="17"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="7"/>
+      <c r="K43" s="15"/>
       <c r="L43" s="7"/>
-      <c r="M43" s="16"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="17"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="14"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="17"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="7"/>
+      <c r="K44" s="15"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="17"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="14"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="17"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="7"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="16"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="17"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="14"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="17"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="18"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="17"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="14"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="17"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="7"/>
+      <c r="K47" s="15"/>
       <c r="L47" s="7"/>
-      <c r="M47" s="16"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="17"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="14"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="17"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="15"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="16"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="17"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="14"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="17"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="15"/>
       <c r="L49" s="7"/>
-      <c r="M49" s="16"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="17"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="14"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="17"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="7"/>
-      <c r="M50" s="16"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="17"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="14"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="17"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="15"/>
       <c r="L51" s="7"/>
-      <c r="M51" s="16"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="17"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="14"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="17"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="15"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="15"/>
       <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="17"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="14"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="17"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="15"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="15"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="16"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="17"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="14"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="17"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="15"/>
       <c r="L54" s="7"/>
-      <c r="M54" s="18"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="17"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="14"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="17"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="7"/>
+      <c r="K55" s="15"/>
       <c r="L55" s="7"/>
-      <c r="M55" s="16"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="17"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="14"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="17"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="7"/>
+      <c r="K56" s="15"/>
       <c r="L56" s="7"/>
-      <c r="M56" s="16"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="17"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="14"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="17"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="15"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="7"/>
+      <c r="K57" s="15"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="16"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="17"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="14"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="17"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="15"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="7"/>
+      <c r="K58" s="15"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="16"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="17"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="14"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="16"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="17"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="15"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="16"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="20"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="25"/>
+      <c r="I60" s="21"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="25"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="16"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="20"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="25"/>
+      <c r="I61" s="21"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="7"/>
+      <c r="K61" s="25"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="20"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="25"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="25"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="25"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="16"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="17"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="14"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="16"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="17"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="15"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="15"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="16"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="17"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="14"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="16"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="17"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="15"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="15"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="18"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="17"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="14"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="18"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="17"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="15"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="7"/>
+      <c r="K65" s="15"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="16"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="17"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="14"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="17"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
+      <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="16"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="17"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="14"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="17"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
+      <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="15"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="16"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="17"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="14"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="17"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="7"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="16"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="17"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="14"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="16"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="17"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="15"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="7"/>
+      <c r="K69" s="15"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="16"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="17"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="14"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="16"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="17"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="15"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="7"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="16"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="17"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="14"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="16"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="17"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="15"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="7"/>
+      <c r="K71" s="15"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="16"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="17"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="14"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="16"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="17"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="15"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="7"/>
+      <c r="K72" s="15"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="16"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="17"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="14"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="17"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="7"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="16"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="17"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="14"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="17"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="15"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="7"/>
+      <c r="K74" s="15"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="16"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="17"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="14"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="17"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
-      <c r="I75" s="15"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="7"/>
+      <c r="K75" s="15"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="16"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="17"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="14"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="17"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="15"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="7"/>
+      <c r="K76" s="15"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="16"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="17"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="14"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="17"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
-      <c r="I77" s="15"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="15"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="16"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="17"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="14"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="17"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="15"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="7"/>
+      <c r="K78" s="15"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="16"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="17"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="14"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="16"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="17"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="7"/>
+      <c r="K79" s="15"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="16"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="17"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="14"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="16"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="17"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="7"/>
+      <c r="K80" s="15"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="16"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="17"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="14"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="16"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="17"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="7"/>
+      <c r="K81" s="15"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="16"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="17"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="14"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="16"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="17"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
-      <c r="I82" s="15"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="7"/>
+      <c r="K82" s="15"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="16"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="17"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="14"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="16"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="17"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="7"/>
+      <c r="K83" s="15"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="16"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="17"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="14"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="16"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="17"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
-      <c r="I84" s="15"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="7"/>
+      <c r="K84" s="15"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="16"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="17"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="14"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="16"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="17"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="7"/>
+      <c r="K85" s="15"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="16"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="17"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="14"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="16"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="17"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="7"/>
+      <c r="K86" s="15"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="16"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="17"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="14"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="17"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="7"/>
+      <c r="K87" s="15"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="16"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="17"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="14"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="17"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="7"/>
+      <c r="K88" s="15"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="16"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="17"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="14"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="17"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
-      <c r="I89" s="15"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="7"/>
+      <c r="K89" s="15"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="16"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="17"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="14"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="16"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="17"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
-      <c r="I90" s="15"/>
+      <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="7"/>
+      <c r="K90" s="15"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="16"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="17"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="14"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="16"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="17"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="7"/>
+      <c r="K91" s="15"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="16"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:M1000">
+  <conditionalFormatting sqref="B2:N1000">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>(NOT(ISBLANK($E2)) )</formula>
+      <formula>(NOT(ISBLANK($F2)) )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M1000">
+  <conditionalFormatting sqref="B2:N1000">
     <cfRule type="expression" dxfId="4" priority="7">
+      <formula>($M2=TRUE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:N1000">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>($L2=TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M1000">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>($K2=TRUE)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M1000">
+  <conditionalFormatting sqref="B2:N1000">
     <cfRule type="expression" dxfId="2" priority="11">
       <formula>#REF! &lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M1000">
+  <conditionalFormatting sqref="B2:N1000">
     <cfRule type="expression" dxfId="1" priority="13">
       <formula>#REF! &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:M1000">
+  <conditionalFormatting sqref="B2:N1000">
     <cfRule type="expression" dxfId="0" priority="15">
       <formula>(NOT(ISBLANK(#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D91">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E91">
       <formula1>"Compra,Venda"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/assets/operacoes-teste.xlsx
+++ b/tests/assets/operacoes-teste.xlsx
@@ -566,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -582,7 +582,7 @@
     <col min="14" max="14" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="12.75">
       <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
@@ -851,7 +851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" ht="12.75">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -866,7 +866,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="12.75">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -880,7 +880,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="12.75">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -895,7 +895,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="16"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="12.75">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -909,7 +909,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" ht="12.75">
       <c r="B11" s="20"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -923,7 +923,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" ht="12.75">
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -937,7 +937,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="12.75">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -951,7 +951,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" ht="12.75">
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -965,7 +965,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" ht="12.75">
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -980,7 +980,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="16"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="12.75">
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -995,7 +995,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="19"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -1010,7 +1010,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="16"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" ht="12.75">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="14"/>
@@ -1024,7 +1024,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" ht="12.75">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -1038,7 +1038,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" ht="12.75">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -1052,7 +1052,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" ht="12.75">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -1067,7 +1067,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="16"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" ht="12.75">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1081,7 +1081,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" ht="12.75">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1096,7 +1096,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" ht="12.75">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -1110,7 +1110,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" ht="12.75">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -1124,7 +1124,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" ht="12.75">
       <c r="B26" s="9"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -1139,7 +1139,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="12.75">
       <c r="B27" s="9"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -1153,7 +1153,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" ht="12.75">
       <c r="B28" s="9"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -1168,7 +1168,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" ht="12.75">
       <c r="B29" s="9"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -1183,7 +1183,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" ht="12.75">
       <c r="B30" s="9"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
@@ -1198,7 +1198,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="12.75">
       <c r="B31" s="9"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -1212,7 +1212,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="12.75">
       <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -1227,7 +1227,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" ht="12.75">
       <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -1242,7 +1242,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" ht="12.75">
       <c r="B34" s="9"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
@@ -1257,7 +1257,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" ht="12.75">
       <c r="B35" s="9"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -1272,7 +1272,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" ht="12.75">
       <c r="B36" s="9"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -1287,7 +1287,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" ht="12.75">
       <c r="B37" s="23"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -1302,7 +1302,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" ht="12.75">
       <c r="B38" s="23"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1317,7 +1317,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" ht="12.75">
       <c r="B39" s="23"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -1331,7 +1331,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" ht="12.75">
       <c r="B40" s="17"/>
       <c r="C40" s="5"/>
       <c r="D40" s="6"/>
@@ -1346,7 +1346,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" ht="12.75">
       <c r="B41" s="17"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -1361,7 +1361,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" ht="12.75">
       <c r="B42" s="17"/>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -1375,7 +1375,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" ht="12.75">
       <c r="B43" s="17"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -1390,7 +1390,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" ht="12.75">
       <c r="B44" s="17"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
@@ -1405,7 +1405,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" ht="12.75">
       <c r="B45" s="17"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
@@ -1420,7 +1420,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" ht="12.75">
       <c r="B46" s="17"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
@@ -1435,7 +1435,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" ht="12.75">
       <c r="B47" s="17"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
@@ -1450,7 +1450,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" ht="12.75">
       <c r="B48" s="17"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -1465,7 +1465,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" ht="12.75">
       <c r="B49" s="17"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
@@ -1480,7 +1480,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" ht="12.75">
       <c r="B50" s="17"/>
       <c r="C50" s="22"/>
       <c r="D50" s="6"/>
@@ -1495,7 +1495,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" ht="12.75">
       <c r="B51" s="17"/>
       <c r="C51" s="22"/>
       <c r="D51" s="6"/>
@@ -1510,7 +1510,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" ht="12.75">
       <c r="B52" s="17"/>
       <c r="C52" s="22"/>
       <c r="D52" s="6"/>
@@ -1524,7 +1524,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" ht="12.75">
       <c r="B53" s="17"/>
       <c r="C53" s="22"/>
       <c r="D53" s="6"/>
@@ -1539,7 +1539,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" ht="12.75">
       <c r="B54" s="17"/>
       <c r="C54" s="22"/>
       <c r="D54" s="6"/>
@@ -1554,7 +1554,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" ht="12.75">
       <c r="B55" s="17"/>
       <c r="C55" s="22"/>
       <c r="D55" s="6"/>
@@ -1569,7 +1569,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" ht="12.75">
       <c r="B56" s="17"/>
       <c r="C56" s="22"/>
       <c r="D56" s="6"/>
@@ -1584,7 +1584,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" ht="12.75">
       <c r="B57" s="17"/>
       <c r="C57" s="22"/>
       <c r="D57" s="6"/>
@@ -1599,7 +1599,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" ht="12.75">
       <c r="B58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="6"/>
@@ -1614,7 +1614,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" ht="12.75">
       <c r="B59" s="17"/>
       <c r="C59" s="22"/>
       <c r="D59" s="6"/>
@@ -1629,7 +1629,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" ht="12.75">
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
@@ -1644,7 +1644,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" ht="12.75">
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -1659,7 +1659,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" ht="12.75">
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -1674,7 +1674,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" ht="12.75">
       <c r="B63" s="17"/>
       <c r="C63" s="22"/>
       <c r="D63" s="6"/>
@@ -1689,7 +1689,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" ht="12.75">
       <c r="B64" s="17"/>
       <c r="C64" s="22"/>
       <c r="D64" s="6"/>
@@ -1704,7 +1704,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="18"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" ht="12.75">
       <c r="B65" s="17"/>
       <c r="C65" s="22"/>
       <c r="D65" s="6"/>
@@ -1719,7 +1719,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" ht="12.75">
       <c r="B66" s="17"/>
       <c r="C66" s="22"/>
       <c r="D66" s="6"/>
@@ -1734,7 +1734,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" ht="12.75">
       <c r="B67" s="17"/>
       <c r="C67" s="22"/>
       <c r="D67" s="6"/>
@@ -1749,7 +1749,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" ht="12.75">
       <c r="B68" s="17"/>
       <c r="C68" s="22"/>
       <c r="D68" s="6"/>
@@ -1764,7 +1764,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" ht="12.75">
       <c r="B69" s="17"/>
       <c r="C69" s="22"/>
       <c r="D69" s="6"/>
@@ -1779,7 +1779,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" ht="12.75">
       <c r="B70" s="17"/>
       <c r="C70" s="22"/>
       <c r="D70" s="6"/>
@@ -1794,7 +1794,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" ht="12.75">
       <c r="B71" s="17"/>
       <c r="C71" s="22"/>
       <c r="D71" s="6"/>
@@ -1809,7 +1809,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" ht="12.75">
       <c r="B72" s="17"/>
       <c r="C72" s="22"/>
       <c r="D72" s="6"/>
@@ -1824,7 +1824,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" ht="12.75">
       <c r="B73" s="17"/>
       <c r="C73" s="22"/>
       <c r="D73" s="6"/>
@@ -1839,7 +1839,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" ht="12.75">
       <c r="B74" s="17"/>
       <c r="C74" s="22"/>
       <c r="D74" s="6"/>
@@ -1854,7 +1854,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" ht="12.75">
       <c r="B75" s="17"/>
       <c r="C75" s="22"/>
       <c r="D75" s="6"/>
@@ -1869,7 +1869,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" ht="12.75">
       <c r="B76" s="17"/>
       <c r="C76" s="22"/>
       <c r="D76" s="6"/>
@@ -1884,7 +1884,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" ht="12.75">
       <c r="B77" s="17"/>
       <c r="C77" s="22"/>
       <c r="D77" s="6"/>
@@ -1899,7 +1899,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" ht="12.75">
       <c r="B78" s="17"/>
       <c r="C78" s="22"/>
       <c r="D78" s="6"/>
@@ -1914,7 +1914,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" ht="12.75">
       <c r="B79" s="17"/>
       <c r="C79" s="22"/>
       <c r="D79" s="6"/>
@@ -1929,7 +1929,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" ht="12.75">
       <c r="B80" s="17"/>
       <c r="C80" s="5"/>
       <c r="D80" s="3"/>
@@ -1944,7 +1944,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" ht="12.75">
       <c r="B81" s="17"/>
       <c r="C81" s="5"/>
       <c r="D81" s="3"/>
@@ -1959,7 +1959,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" ht="12.75">
       <c r="B82" s="17"/>
       <c r="C82" s="5"/>
       <c r="D82" s="3"/>
@@ -1974,7 +1974,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" ht="12.75">
       <c r="B83" s="17"/>
       <c r="C83" s="5"/>
       <c r="D83" s="3"/>
@@ -1989,7 +1989,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" ht="12.75">
       <c r="B84" s="17"/>
       <c r="C84" s="5"/>
       <c r="D84" s="3"/>
@@ -2004,7 +2004,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" ht="12.75">
       <c r="B85" s="17"/>
       <c r="C85" s="5"/>
       <c r="D85" s="3"/>
@@ -2019,7 +2019,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" ht="12.75">
       <c r="B86" s="17"/>
       <c r="C86" s="5"/>
       <c r="D86" s="3"/>
@@ -2034,7 +2034,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" ht="12.75">
       <c r="B87" s="17"/>
       <c r="C87" s="5"/>
       <c r="D87" s="3"/>
@@ -2049,7 +2049,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" ht="12.75">
       <c r="B88" s="17"/>
       <c r="C88" s="5"/>
       <c r="D88" s="3"/>
@@ -2064,7 +2064,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" ht="12.75">
       <c r="B89" s="17"/>
       <c r="C89" s="5"/>
       <c r="D89" s="3"/>
@@ -2079,7 +2079,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" ht="12.75">
       <c r="B90" s="17"/>
       <c r="C90" s="5"/>
       <c r="D90" s="3"/>
@@ -2094,7 +2094,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" ht="12.75">
       <c r="B91" s="17"/>
       <c r="C91" s="5"/>
       <c r="D91" s="3"/>
